--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N2">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q2">
-        <v>17.62918478825933</v>
+        <v>12.87035942542133</v>
       </c>
       <c r="R2">
-        <v>158.662663094334</v>
+        <v>115.833234828792</v>
       </c>
       <c r="S2">
-        <v>0.02166855172997286</v>
+        <v>0.01408918581363573</v>
       </c>
       <c r="T2">
-        <v>0.02166855172997286</v>
+        <v>0.01408918581363573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q3">
-        <v>5.811110758054333</v>
+        <v>3.549922026369334</v>
       </c>
       <c r="R3">
-        <v>52.299996822489</v>
+        <v>31.949298237324</v>
       </c>
       <c r="S3">
-        <v>0.007142607873357881</v>
+        <v>0.003886100566441522</v>
       </c>
       <c r="T3">
-        <v>0.007142607873357881</v>
+        <v>0.003886100566441521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P4">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q4">
-        <v>1.756030489917333</v>
+        <v>1.072733178677334</v>
       </c>
       <c r="R4">
-        <v>15.804274409256</v>
+        <v>9.654598608096002</v>
       </c>
       <c r="S4">
-        <v>0.002158388942381739</v>
+        <v>0.001174321289969901</v>
       </c>
       <c r="T4">
-        <v>0.00215838894238174</v>
+        <v>0.001174321289969901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N5">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q5">
-        <v>465.935511623775</v>
+        <v>556.8325269136536</v>
       </c>
       <c r="R5">
-        <v>4193.419604613975</v>
+        <v>5011.492742222883</v>
       </c>
       <c r="S5">
-        <v>0.5726950995019895</v>
+        <v>0.6095647121763232</v>
       </c>
       <c r="T5">
-        <v>0.5726950995019895</v>
+        <v>0.6095647121763231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q6">
         <v>153.5863907876032</v>
@@ -818,10 +818,10 @@
         <v>1382.277517088429</v>
       </c>
       <c r="S6">
-        <v>0.1887775693415717</v>
+        <v>0.1681310619793646</v>
       </c>
       <c r="T6">
-        <v>0.1887775693415717</v>
+        <v>0.1681310619793645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P7">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q7">
-        <v>46.41150311677956</v>
+        <v>46.41150311677957</v>
       </c>
       <c r="R7">
-        <v>417.703528051016</v>
+        <v>417.7035280510161</v>
       </c>
       <c r="S7">
-        <v>0.05704574932026859</v>
+        <v>0.05080668454455651</v>
       </c>
       <c r="T7">
-        <v>0.0570457493202686</v>
+        <v>0.05080668454455649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N8">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O8">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P8">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q8">
-        <v>85.67785364444602</v>
+        <v>102.392315149178</v>
       </c>
       <c r="R8">
-        <v>771.1006828000141</v>
+        <v>921.5308363426021</v>
       </c>
       <c r="S8">
-        <v>0.1053091805495239</v>
+        <v>0.1120888940502834</v>
       </c>
       <c r="T8">
-        <v>0.1053091805495239</v>
+        <v>0.1120888940502833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>23.334077</v>
       </c>
       <c r="O9">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P9">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q9">
         <v>28.242003417641</v>
@@ -1004,10 +1004,10 @@
         <v>254.178030758769</v>
       </c>
       <c r="S9">
-        <v>0.03471308057425203</v>
+        <v>0.03091652849372179</v>
       </c>
       <c r="T9">
-        <v>0.03471308057425203</v>
+        <v>0.03091652849372178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N10">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O10">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P10">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q10">
-        <v>8.534309732263999</v>
+        <v>8.534309732264003</v>
       </c>
       <c r="R10">
-        <v>76.808787590376</v>
+        <v>76.80878759037601</v>
       </c>
       <c r="S10">
-        <v>0.01048977216668182</v>
+        <v>0.009342511085703499</v>
       </c>
       <c r="T10">
-        <v>0.01048977216668182</v>
+        <v>0.009342511085703498</v>
       </c>
     </row>
   </sheetData>
